--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,94 +52,88 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
     <t>wife</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
+    <t>cake</t>
+  </si>
+  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>sturdy</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>ever</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>tea</t>
   </si>
   <si>
     <t>easy</t>
@@ -148,9 +142,6 @@
     <t>kitchen</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -163,28 +154,28 @@
     <t>well</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
+    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -545,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.248062015503876</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -656,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -664,13 +655,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +681,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +707,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8606811145510835</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L6">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M6">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -734,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -742,7 +733,7 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8405797101449275</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L7">
         <v>58</v>
@@ -760,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -768,13 +759,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7662337662337663</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L8">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="M8">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -786,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -794,13 +785,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7229437229437229</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -812,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -820,13 +811,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.6677966101694915</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L10">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -838,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>98</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -846,13 +837,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.6619718309859155</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -864,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -872,13 +863,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6590909090909091</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -898,13 +889,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6491228070175439</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -916,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -924,13 +915,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6444444444444445</v>
+        <v>0.6508474576271186</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -942,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -950,13 +941,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6396468699839486</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L15">
-        <v>797</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>797</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -968,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>449</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -976,13 +967,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6114285714285714</v>
+        <v>0.6364365971107544</v>
       </c>
       <c r="L16">
-        <v>107</v>
+        <v>793</v>
       </c>
       <c r="M16">
-        <v>107</v>
+        <v>793</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -994,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>68</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1002,13 +993,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6029411764705882</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1020,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1028,13 +1019,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.589041095890411</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1046,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1054,13 +1045,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.5833333333333334</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1072,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1080,13 +1071,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5714285714285714</v>
+        <v>0.5625</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1098,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1106,13 +1097,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5470085470085471</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L21">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1124,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1132,13 +1123,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.546875</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1150,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1158,13 +1149,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5384615384615384</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L23">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M23">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1176,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1184,13 +1175,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5180722891566265</v>
+        <v>0.4790419161676647</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1202,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1210,13 +1201,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5076923076923077</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1228,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1236,13 +1227,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.4970059880239521</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L26">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="M26">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1254,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1262,13 +1253,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1280,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1288,13 +1279,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.4603174603174603</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1306,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1314,13 +1305,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.4135338345864661</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="L29">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="M29">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1332,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>78</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1340,13 +1331,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.3554216867469879</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L30">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M30">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1358,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1366,13 +1357,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.3529411764705883</v>
+        <v>0.3268482490272374</v>
       </c>
       <c r="L31">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="M31">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1384,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>264</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1392,13 +1383,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.3268482490272374</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L32">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1410,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>173</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1418,13 +1409,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.3233082706766917</v>
+        <v>0.2575342465753425</v>
       </c>
       <c r="L33">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="M33">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1436,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>90</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1444,13 +1435,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.2972972972972973</v>
+        <v>0.2535885167464115</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1462,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>78</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1470,13 +1461,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.2575342465753425</v>
+        <v>0.2335844994617869</v>
       </c>
       <c r="L35">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="M35">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1488,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>542</v>
+        <v>712</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1496,13 +1487,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.2392344497607655</v>
+        <v>0.1880877742946709</v>
       </c>
       <c r="L36">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M36">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1514,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>159</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1522,13 +1513,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.237410071942446</v>
+        <v>0.1801324503311258</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1540,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>106</v>
+        <v>619</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1548,13 +1539,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.2282023681377826</v>
+        <v>0.170076726342711</v>
       </c>
       <c r="L38">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="M38">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1566,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>717</v>
+        <v>649</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1574,13 +1565,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.2037617554858934</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L39">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1592,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1600,25 +1591,25 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.1695364238410596</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="L40">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="M40">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>627</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1626,13 +1617,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.1611253196930946</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="L41">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="M41">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1644,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>656</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1652,13 +1643,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.1192214111922141</v>
+        <v>0.08409090909090909</v>
       </c>
       <c r="L42">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M42">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1670,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>362</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1678,13 +1669,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.1168384879725086</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="L43">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M43">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1696,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>257</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1704,13 +1695,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.1132075471698113</v>
+        <v>0.06446991404011461</v>
       </c>
       <c r="L44">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M44">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1722,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>329</v>
+        <v>653</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1730,13 +1721,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.1022727272727273</v>
+        <v>0.05130597014925373</v>
       </c>
       <c r="L45">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M45">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1748,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>395</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1756,103 +1747,25 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.08353221957040573</v>
+        <v>0.02512998266897747</v>
       </c>
       <c r="L46">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K47">
-        <v>0.08114035087719298</v>
-      </c>
-      <c r="L47">
-        <v>37</v>
-      </c>
-      <c r="M47">
-        <v>37</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K48">
-        <v>0.06623134328358209</v>
-      </c>
-      <c r="L48">
-        <v>71</v>
-      </c>
-      <c r="M48">
-        <v>71</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K49">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="L49">
-        <v>41</v>
-      </c>
-      <c r="M49">
-        <v>42</v>
-      </c>
-      <c r="N49">
-        <v>0.98</v>
-      </c>
-      <c r="O49">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>656</v>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
